--- a/SIRS MODELS/spain/01_04_2020.xlsx
+++ b/SIRS MODELS/spain/01_04_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91F7642-5F66-4B42-9CA7-F1380E216A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F41F08-A2A5-43ED-8596-35429CC192A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8225,8 +8225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23:S204"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11055,8 +11055,8 @@
         <v>25409</v>
       </c>
       <c r="F42" s="159">
-        <f t="shared" ref="F42:F105" si="76">D42*F$40/D$40</f>
-        <v>9373.0221114852538</v>
+        <f>D42*F$41/D$41</f>
+        <v>9415.4355467220175</v>
       </c>
       <c r="G42" s="160">
         <f t="shared" si="0"/>
@@ -11067,15 +11067,15 @@
         <v>1.040034855486802</v>
       </c>
       <c r="I42" s="157">
-        <f t="shared" ref="I42:I68" si="77">INT((S$17*K42+I41)/(1+R$17*J42))</f>
+        <f t="shared" ref="I42:I68" si="76">INT((S$17*K42+I41)/(1+R$17*J42))</f>
         <v>26396</v>
       </c>
       <c r="J42" s="162">
-        <f t="shared" ref="J42:J97" si="78">S42</f>
+        <f t="shared" ref="J42:J97" si="77">S42</f>
         <v>74525</v>
       </c>
       <c r="K42" s="163">
-        <f t="shared" ref="K42:K68" si="79">INT((Q$17*J42+K41)/(1+P$17+S$17))</f>
+        <f t="shared" ref="K42:K68" si="78">INT((Q$17*J42+K41)/(1+P$17+S$17))</f>
         <v>25409</v>
       </c>
       <c r="L42" s="164">
@@ -11128,8 +11128,8 @@
         <v>28320</v>
       </c>
       <c r="F43" s="30">
-        <f t="shared" si="76"/>
-        <v>9676.0294819803385</v>
+        <f t="shared" ref="F43:F106" si="79">D43*F$41/D$41</f>
+        <v>9719.8140420615655</v>
       </c>
       <c r="G43" s="27">
         <f t="shared" si="0"/>
@@ -11140,15 +11140,15 @@
         <v>1.0323276064956461</v>
       </c>
       <c r="I43" s="50">
+        <f t="shared" si="76"/>
+        <v>21315</v>
+      </c>
+      <c r="J43" s="18">
         <f t="shared" si="77"/>
-        <v>21315</v>
-      </c>
-      <c r="J43" s="18">
+        <v>77959</v>
+      </c>
+      <c r="K43" s="36">
         <f t="shared" si="78"/>
-        <v>77959</v>
-      </c>
-      <c r="K43" s="36">
-        <f t="shared" si="79"/>
         <v>28320</v>
       </c>
       <c r="L43" s="91">
@@ -11202,8 +11202,8 @@
         <v>31360</v>
       </c>
       <c r="F44" s="63">
-        <f t="shared" si="76"/>
-        <v>9920.4471920185988</v>
+        <f t="shared" si="79"/>
+        <v>9965.33775554163</v>
       </c>
       <c r="G44" s="28">
         <f t="shared" si="0"/>
@@ -11214,15 +11214,15 @@
         <v>1.0252601245679789</v>
       </c>
       <c r="I44" s="49">
+        <f t="shared" si="76"/>
+        <v>16745</v>
+      </c>
+      <c r="J44" s="38">
         <f t="shared" si="77"/>
-        <v>16745</v>
-      </c>
-      <c r="J44" s="38">
+        <v>80729</v>
+      </c>
+      <c r="K44" s="37">
         <f t="shared" si="78"/>
-        <v>80729</v>
-      </c>
-      <c r="K44" s="37">
-        <f t="shared" si="79"/>
         <v>31360</v>
       </c>
       <c r="L44" s="90">
@@ -11275,8 +11275,8 @@
         <v>34509</v>
       </c>
       <c r="F45" s="30">
-        <f t="shared" si="76"/>
-        <v>10107.598803206738</v>
+        <f t="shared" si="79"/>
+        <v>10153.336237957234</v>
       </c>
       <c r="G45" s="27">
         <f t="shared" si="0"/>
@@ -11287,15 +11287,15 @@
         <v>1.0188652393955295</v>
       </c>
       <c r="I45" s="23">
+        <f t="shared" si="76"/>
+        <v>12665</v>
+      </c>
+      <c r="J45" s="35">
         <f t="shared" si="77"/>
-        <v>12665</v>
-      </c>
-      <c r="J45" s="35">
+        <v>82850</v>
+      </c>
+      <c r="K45" s="39">
         <f t="shared" si="78"/>
-        <v>82850</v>
-      </c>
-      <c r="K45" s="39">
-        <f t="shared" si="79"/>
         <v>34509</v>
       </c>
       <c r="L45" s="92">
@@ -11348,8 +11348,8 @@
         <v>37747</v>
       </c>
       <c r="F46" s="63">
-        <f t="shared" si="76"/>
-        <v>10240.219676198618</v>
+        <f t="shared" si="79"/>
+        <v>10286.557227618077</v>
       </c>
       <c r="G46" s="28">
         <f t="shared" si="0"/>
@@ -11360,15 +11360,15 @@
         <v>1.0131209079004801</v>
       </c>
       <c r="I46" s="49">
+        <f t="shared" si="76"/>
+        <v>9037</v>
+      </c>
+      <c r="J46" s="38">
         <f t="shared" si="77"/>
-        <v>9037</v>
-      </c>
-      <c r="J46" s="38">
+        <v>84353</v>
+      </c>
+      <c r="K46" s="37">
         <f t="shared" si="78"/>
-        <v>84353</v>
-      </c>
-      <c r="K46" s="37">
-        <f t="shared" si="79"/>
         <v>37747</v>
       </c>
       <c r="L46" s="90">
@@ -11421,8 +11421,8 @@
         <v>41056</v>
       </c>
       <c r="F47" s="30">
-        <f t="shared" si="76"/>
-        <v>10322.192258373903</v>
+        <f t="shared" si="79"/>
+        <v>10368.900740189551</v>
       </c>
       <c r="G47" s="27">
         <f t="shared" si="0"/>
@@ -11433,15 +11433,15 @@
         <v>1.0080049632495498</v>
       </c>
       <c r="I47" s="23">
+        <f t="shared" si="76"/>
+        <v>5813</v>
+      </c>
+      <c r="J47" s="35">
         <f t="shared" si="77"/>
-        <v>5813</v>
-      </c>
-      <c r="J47" s="35">
+        <v>85282</v>
+      </c>
+      <c r="K47" s="39">
         <f t="shared" si="78"/>
-        <v>85282</v>
-      </c>
-      <c r="K47" s="39">
-        <f t="shared" si="79"/>
         <v>41056</v>
       </c>
       <c r="L47" s="92">
@@ -11496,8 +11496,8 @@
         <v>44420</v>
       </c>
       <c r="F48" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G48" s="28">
         <f t="shared" si="0"/>
@@ -11508,15 +11508,15 @@
         <v>1.0034364261168385</v>
       </c>
       <c r="I48" s="49">
+        <f t="shared" si="76"/>
+        <v>2940</v>
+      </c>
+      <c r="J48" s="38">
         <f t="shared" si="77"/>
-        <v>2940</v>
-      </c>
-      <c r="J48" s="38">
+        <v>85684</v>
+      </c>
+      <c r="K48" s="37">
         <f t="shared" si="78"/>
-        <v>85684</v>
-      </c>
-      <c r="K48" s="37">
-        <f t="shared" si="79"/>
         <v>44420</v>
       </c>
       <c r="L48" s="90">
@@ -11569,8 +11569,8 @@
         <v>47824</v>
       </c>
       <c r="F49" s="30">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G49" s="27">
         <f t="shared" si="0"/>
@@ -11581,15 +11581,15 @@
         <v>1</v>
       </c>
       <c r="I49" s="23">
+        <f t="shared" si="76"/>
+        <v>367</v>
+      </c>
+      <c r="J49" s="35">
         <f t="shared" si="77"/>
-        <v>367</v>
-      </c>
-      <c r="J49" s="35">
+        <v>85608</v>
+      </c>
+      <c r="K49" s="39">
         <f t="shared" si="78"/>
-        <v>85608</v>
-      </c>
-      <c r="K49" s="39">
-        <f t="shared" si="79"/>
         <v>47824</v>
       </c>
       <c r="L49" s="92">
@@ -11642,8 +11642,8 @@
         <v>51254</v>
       </c>
       <c r="F50" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G50" s="28">
         <f t="shared" si="0"/>
@@ -11654,15 +11654,15 @@
         <v>1</v>
       </c>
       <c r="I50" s="49">
+        <f t="shared" si="76"/>
+        <v>-1957</v>
+      </c>
+      <c r="J50" s="38">
         <f t="shared" si="77"/>
-        <v>-1957</v>
-      </c>
-      <c r="J50" s="38">
+        <v>85102</v>
+      </c>
+      <c r="K50" s="37">
         <f t="shared" si="78"/>
-        <v>85102</v>
-      </c>
-      <c r="K50" s="37">
-        <f t="shared" si="79"/>
         <v>51254</v>
       </c>
       <c r="L50" s="90">
@@ -11715,8 +11715,8 @@
         <v>54697</v>
       </c>
       <c r="F51" s="30">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G51" s="27">
         <f t="shared" si="0"/>
@@ -11727,15 +11727,15 @@
         <v>1</v>
       </c>
       <c r="I51" s="50">
+        <f t="shared" si="76"/>
+        <v>-4079</v>
+      </c>
+      <c r="J51" s="18">
         <f t="shared" si="77"/>
-        <v>-4079</v>
-      </c>
-      <c r="J51" s="18">
+        <v>84211</v>
+      </c>
+      <c r="K51" s="36">
         <f t="shared" si="78"/>
-        <v>84211</v>
-      </c>
-      <c r="K51" s="36">
-        <f t="shared" si="79"/>
         <v>54697</v>
       </c>
       <c r="L51" s="91">
@@ -11788,8 +11788,8 @@
         <v>58142</v>
       </c>
       <c r="F52" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G52" s="28">
         <f t="shared" si="0"/>
@@ -11800,15 +11800,15 @@
         <v>1</v>
       </c>
       <c r="I52" s="49">
+        <f t="shared" si="76"/>
+        <v>-6040</v>
+      </c>
+      <c r="J52" s="38">
         <f t="shared" si="77"/>
-        <v>-6040</v>
-      </c>
-      <c r="J52" s="38">
+        <v>82975</v>
+      </c>
+      <c r="K52" s="37">
         <f t="shared" si="78"/>
-        <v>82975</v>
-      </c>
-      <c r="K52" s="37">
-        <f t="shared" si="79"/>
         <v>58142</v>
       </c>
       <c r="L52" s="90">
@@ -11861,8 +11861,8 @@
         <v>61579</v>
       </c>
       <c r="F53" s="30">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G53" s="27">
         <f t="shared" si="0"/>
@@ -11873,15 +11873,15 @@
         <v>1</v>
       </c>
       <c r="I53" s="50">
+        <f t="shared" si="76"/>
+        <v>-7877</v>
+      </c>
+      <c r="J53" s="18">
         <f t="shared" si="77"/>
-        <v>-7877</v>
-      </c>
-      <c r="J53" s="18">
+        <v>81431</v>
+      </c>
+      <c r="K53" s="36">
         <f t="shared" si="78"/>
-        <v>81431</v>
-      </c>
-      <c r="K53" s="36">
-        <f t="shared" si="79"/>
         <v>61579</v>
       </c>
       <c r="L53" s="91">
@@ -11934,8 +11934,8 @@
         <v>64998</v>
       </c>
       <c r="F54" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G54" s="28">
         <f t="shared" si="0"/>
@@ -11946,15 +11946,15 @@
         <v>1</v>
       </c>
       <c r="I54" s="49">
+        <f t="shared" si="76"/>
+        <v>-9623</v>
+      </c>
+      <c r="J54" s="38">
         <f t="shared" si="77"/>
-        <v>-9623</v>
-      </c>
-      <c r="J54" s="38">
+        <v>79613</v>
+      </c>
+      <c r="K54" s="37">
         <f t="shared" si="78"/>
-        <v>79613</v>
-      </c>
-      <c r="K54" s="37">
-        <f t="shared" si="79"/>
         <v>64998</v>
       </c>
       <c r="L54" s="90">
@@ -12007,8 +12007,8 @@
         <v>68392</v>
       </c>
       <c r="F55" s="30">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G55" s="27">
         <f t="shared" si="0"/>
@@ -12019,15 +12019,15 @@
         <v>1</v>
       </c>
       <c r="I55" s="23">
+        <f t="shared" si="76"/>
+        <v>-11307</v>
+      </c>
+      <c r="J55" s="35">
         <f t="shared" si="77"/>
-        <v>-11307</v>
-      </c>
-      <c r="J55" s="35">
+        <v>77550</v>
+      </c>
+      <c r="K55" s="39">
         <f t="shared" si="78"/>
-        <v>77550</v>
-      </c>
-      <c r="K55" s="39">
-        <f t="shared" si="79"/>
         <v>68392</v>
       </c>
       <c r="L55" s="92">
@@ -12080,8 +12080,8 @@
         <v>71752</v>
       </c>
       <c r="F56" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G56" s="28">
         <f t="shared" si="0"/>
@@ -12092,15 +12092,15 @@
         <v>1</v>
       </c>
       <c r="I56" s="49">
+        <f t="shared" si="76"/>
+        <v>-12954</v>
+      </c>
+      <c r="J56" s="38">
         <f t="shared" si="77"/>
-        <v>-12954</v>
-      </c>
-      <c r="J56" s="38">
+        <v>75270</v>
+      </c>
+      <c r="K56" s="37">
         <f t="shared" si="78"/>
-        <v>75270</v>
-      </c>
-      <c r="K56" s="37">
-        <f t="shared" si="79"/>
         <v>71752</v>
       </c>
       <c r="L56" s="90">
@@ -12153,8 +12153,8 @@
         <v>75072</v>
       </c>
       <c r="F57" s="30">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="0"/>
@@ -12165,15 +12165,15 @@
         <v>1</v>
       </c>
       <c r="I57" s="23">
+        <f t="shared" si="76"/>
+        <v>-14587</v>
+      </c>
+      <c r="J57" s="35">
         <f t="shared" si="77"/>
-        <v>-14587</v>
-      </c>
-      <c r="J57" s="35">
+        <v>72797</v>
+      </c>
+      <c r="K57" s="39">
         <f t="shared" si="78"/>
-        <v>72797</v>
-      </c>
-      <c r="K57" s="39">
-        <f t="shared" si="79"/>
         <v>75072</v>
       </c>
       <c r="L57" s="92">
@@ -12226,8 +12226,8 @@
         <v>78346</v>
       </c>
       <c r="F58" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G58" s="28">
         <f t="shared" si="0"/>
@@ -12238,15 +12238,15 @@
         <v>1</v>
       </c>
       <c r="I58" s="49">
+        <f t="shared" si="76"/>
+        <v>-16226</v>
+      </c>
+      <c r="J58" s="5">
         <f t="shared" si="77"/>
-        <v>-16226</v>
-      </c>
-      <c r="J58" s="5">
+        <v>70154</v>
+      </c>
+      <c r="K58" s="37">
         <f t="shared" si="78"/>
-        <v>70154</v>
-      </c>
-      <c r="K58" s="37">
-        <f t="shared" si="79"/>
         <v>78346</v>
       </c>
       <c r="L58" s="90">
@@ -12299,8 +12299,8 @@
         <v>81568</v>
       </c>
       <c r="F59" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G59" s="27">
         <f t="shared" si="0"/>
@@ -12311,15 +12311,15 @@
         <v>1</v>
       </c>
       <c r="I59" s="11">
+        <f t="shared" si="76"/>
+        <v>-17890</v>
+      </c>
+      <c r="J59" s="4">
         <f t="shared" si="77"/>
-        <v>-17890</v>
-      </c>
-      <c r="J59" s="4">
+        <v>67363</v>
+      </c>
+      <c r="K59" s="51">
         <f t="shared" si="78"/>
-        <v>67363</v>
-      </c>
-      <c r="K59" s="51">
-        <f t="shared" si="79"/>
         <v>81568</v>
       </c>
       <c r="L59" s="86">
@@ -12372,8 +12372,8 @@
         <v>84733</v>
       </c>
       <c r="F60" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G60" s="28">
         <f t="shared" si="0"/>
@@ -12384,15 +12384,15 @@
         <v>1</v>
       </c>
       <c r="I60" s="9">
+        <f t="shared" si="76"/>
+        <v>-19594</v>
+      </c>
+      <c r="J60" s="2">
         <f t="shared" si="77"/>
-        <v>-19594</v>
-      </c>
-      <c r="J60" s="2">
+        <v>64444</v>
+      </c>
+      <c r="K60" s="48">
         <f t="shared" si="78"/>
-        <v>64444</v>
-      </c>
-      <c r="K60" s="48">
-        <f t="shared" si="79"/>
         <v>84733</v>
       </c>
       <c r="L60" s="87">
@@ -12445,8 +12445,8 @@
         <v>87837</v>
       </c>
       <c r="F61" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G61" s="27">
         <f t="shared" si="0"/>
@@ -12457,15 +12457,15 @@
         <v>1</v>
       </c>
       <c r="I61" s="11">
+        <f t="shared" si="76"/>
+        <v>-21355</v>
+      </c>
+      <c r="J61" s="4">
         <f t="shared" si="77"/>
-        <v>-21355</v>
-      </c>
-      <c r="J61" s="4">
+        <v>61417</v>
+      </c>
+      <c r="K61" s="51">
         <f t="shared" si="78"/>
-        <v>61417</v>
-      </c>
-      <c r="K61" s="51">
-        <f t="shared" si="79"/>
         <v>87837</v>
       </c>
       <c r="L61" s="86">
@@ -12518,8 +12518,8 @@
         <v>90877</v>
       </c>
       <c r="F62" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G62" s="28">
         <f t="shared" si="0"/>
@@ -12530,15 +12530,15 @@
         <v>1</v>
       </c>
       <c r="I62" s="9">
+        <f t="shared" si="76"/>
+        <v>-23188</v>
+      </c>
+      <c r="J62" s="2">
         <f t="shared" si="77"/>
-        <v>-23188</v>
-      </c>
-      <c r="J62" s="2">
+        <v>58302</v>
+      </c>
+      <c r="K62" s="48">
         <f t="shared" si="78"/>
-        <v>58302</v>
-      </c>
-      <c r="K62" s="48">
-        <f t="shared" si="79"/>
         <v>90877</v>
       </c>
       <c r="L62" s="87">
@@ -12591,8 +12591,8 @@
         <v>93849</v>
       </c>
       <c r="F63" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G63" s="27">
         <f t="shared" si="0"/>
@@ -12603,15 +12603,15 @@
         <v>1</v>
       </c>
       <c r="I63" s="11">
+        <f t="shared" si="76"/>
+        <v>-25108</v>
+      </c>
+      <c r="J63" s="4">
         <f t="shared" si="77"/>
-        <v>-25108</v>
-      </c>
-      <c r="J63" s="4">
+        <v>55117</v>
+      </c>
+      <c r="K63" s="51">
         <f t="shared" si="78"/>
-        <v>55117</v>
-      </c>
-      <c r="K63" s="51">
-        <f t="shared" si="79"/>
         <v>93849</v>
       </c>
       <c r="L63" s="86">
@@ -12664,8 +12664,8 @@
         <v>96750</v>
       </c>
       <c r="F64" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G64" s="28">
         <f t="shared" si="0"/>
@@ -12676,15 +12676,15 @@
         <v>1</v>
       </c>
       <c r="I64" s="9">
+        <f t="shared" si="76"/>
+        <v>-27128</v>
+      </c>
+      <c r="J64" s="2">
         <f t="shared" si="77"/>
-        <v>-27128</v>
-      </c>
-      <c r="J64" s="2">
+        <v>51882</v>
+      </c>
+      <c r="K64" s="48">
         <f t="shared" si="78"/>
-        <v>51882</v>
-      </c>
-      <c r="K64" s="48">
-        <f t="shared" si="79"/>
         <v>96750</v>
       </c>
       <c r="L64" s="87">
@@ -12737,8 +12737,8 @@
         <v>99579</v>
       </c>
       <c r="F65" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G65" s="27">
         <f t="shared" si="0"/>
@@ -12749,15 +12749,15 @@
         <v>1</v>
       </c>
       <c r="I65" s="11">
+        <f t="shared" si="76"/>
+        <v>-29264</v>
+      </c>
+      <c r="J65" s="4">
         <f t="shared" si="77"/>
-        <v>-29264</v>
-      </c>
-      <c r="J65" s="4">
+        <v>48616</v>
+      </c>
+      <c r="K65" s="51">
         <f t="shared" si="78"/>
-        <v>48616</v>
-      </c>
-      <c r="K65" s="51">
-        <f t="shared" si="79"/>
         <v>99579</v>
       </c>
       <c r="L65" s="86">
@@ -12810,8 +12810,8 @@
         <v>102334</v>
       </c>
       <c r="F66" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G66" s="28">
         <f t="shared" si="0"/>
@@ -12822,15 +12822,15 @@
         <v>1</v>
       </c>
       <c r="I66" s="9">
+        <f t="shared" si="76"/>
+        <v>-31529</v>
+      </c>
+      <c r="J66" s="2">
         <f t="shared" si="77"/>
-        <v>-31529</v>
-      </c>
-      <c r="J66" s="2">
+        <v>45338</v>
+      </c>
+      <c r="K66" s="48">
         <f t="shared" si="78"/>
-        <v>45338</v>
-      </c>
-      <c r="K66" s="48">
-        <f t="shared" si="79"/>
         <v>102334</v>
       </c>
       <c r="L66" s="87">
@@ -12883,8 +12883,8 @@
         <v>105015</v>
       </c>
       <c r="F67" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G67" s="27">
         <f t="shared" si="0"/>
@@ -12895,15 +12895,15 @@
         <v>1</v>
       </c>
       <c r="I67" s="11">
+        <f t="shared" si="76"/>
+        <v>-33938</v>
+      </c>
+      <c r="J67" s="4">
         <f t="shared" si="77"/>
-        <v>-33938</v>
-      </c>
-      <c r="J67" s="4">
+        <v>42069</v>
+      </c>
+      <c r="K67" s="51">
         <f t="shared" si="78"/>
-        <v>42069</v>
-      </c>
-      <c r="K67" s="51">
-        <f t="shared" si="79"/>
         <v>105015</v>
       </c>
       <c r="L67" s="86">
@@ -12956,8 +12956,8 @@
         <v>107622</v>
       </c>
       <c r="F68" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G68" s="28">
         <f t="shared" ref="G68:G131" si="83">D68/U$3</f>
@@ -12968,15 +12968,15 @@
         <v>1</v>
       </c>
       <c r="I68" s="9">
+        <f t="shared" si="76"/>
+        <v>-36506</v>
+      </c>
+      <c r="J68" s="2">
         <f t="shared" si="77"/>
-        <v>-36506</v>
-      </c>
-      <c r="J68" s="2">
+        <v>38828</v>
+      </c>
+      <c r="K68" s="48">
         <f t="shared" si="78"/>
-        <v>38828</v>
-      </c>
-      <c r="K68" s="48">
-        <f t="shared" si="79"/>
         <v>107622</v>
       </c>
       <c r="L68" s="87">
@@ -13029,8 +13029,8 @@
         <v>110155</v>
       </c>
       <c r="F69" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G69" s="27">
         <f t="shared" si="83"/>
@@ -13045,7 +13045,7 @@
         <v>-39248</v>
       </c>
       <c r="J69" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>35634</v>
       </c>
       <c r="K69" s="51">
@@ -13102,8 +13102,8 @@
         <v>112616</v>
       </c>
       <c r="F70" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G70" s="28">
         <f t="shared" si="83"/>
@@ -13118,7 +13118,7 @@
         <v>-42178</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>32507</v>
       </c>
       <c r="K70" s="48">
@@ -13175,8 +13175,8 @@
         <v>115007</v>
       </c>
       <c r="F71" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G71" s="27">
         <f t="shared" si="83"/>
@@ -13191,7 +13191,7 @@
         <v>-45311</v>
       </c>
       <c r="J71" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>29467</v>
       </c>
       <c r="K71" s="51">
@@ -13248,8 +13248,8 @@
         <v>117330</v>
       </c>
       <c r="F72" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G72" s="28">
         <f t="shared" si="83"/>
@@ -13264,7 +13264,7 @@
         <v>-48661</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>26532</v>
       </c>
       <c r="K72" s="48">
@@ -13321,8 +13321,8 @@
         <v>119589</v>
       </c>
       <c r="F73" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G73" s="27">
         <f t="shared" si="83"/>
@@ -13337,7 +13337,7 @@
         <v>-52242</v>
       </c>
       <c r="J73" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>23720</v>
       </c>
       <c r="K73" s="51">
@@ -13394,8 +13394,8 @@
         <v>121787</v>
       </c>
       <c r="F74" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G74" s="28">
         <f t="shared" si="83"/>
@@ -13410,7 +13410,7 @@
         <v>-56066</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>21046</v>
       </c>
       <c r="K74" s="48">
@@ -13467,8 +13467,8 @@
         <v>123929</v>
       </c>
       <c r="F75" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G75" s="27">
         <f t="shared" si="83"/>
@@ -13483,7 +13483,7 @@
         <v>-60145</v>
       </c>
       <c r="J75" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>18526</v>
       </c>
       <c r="K75" s="51">
@@ -13540,8 +13540,8 @@
         <v>126019</v>
       </c>
       <c r="F76" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G76" s="28">
         <f t="shared" si="83"/>
@@ -13556,7 +13556,7 @@
         <v>-64488</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>16171</v>
       </c>
       <c r="K76" s="48">
@@ -13613,8 +13613,8 @@
         <v>128063</v>
       </c>
       <c r="F77" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G77" s="27">
         <f t="shared" si="83"/>
@@ -13629,7 +13629,7 @@
         <v>-69102</v>
       </c>
       <c r="J77" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>13992</v>
       </c>
       <c r="K77" s="51">
@@ -13686,8 +13686,8 @@
         <v>130066</v>
       </c>
       <c r="F78" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G78" s="28">
         <f t="shared" si="83"/>
@@ -13702,7 +13702,7 @@
         <v>-73993</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>11995</v>
       </c>
       <c r="K78" s="48">
@@ -13759,8 +13759,8 @@
         <v>132034</v>
       </c>
       <c r="F79" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G79" s="27">
         <f t="shared" si="83"/>
@@ -13775,7 +13775,7 @@
         <v>-79163</v>
       </c>
       <c r="J79" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>10184</v>
       </c>
       <c r="K79" s="51">
@@ -13832,8 +13832,8 @@
         <v>133973</v>
       </c>
       <c r="F80" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G80" s="28">
         <f t="shared" si="83"/>
@@ -13848,7 +13848,7 @@
         <v>-84612</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>8560</v>
       </c>
       <c r="K80" s="48">
@@ -13905,8 +13905,8 @@
         <v>135888</v>
       </c>
       <c r="F81" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G81" s="27">
         <f t="shared" si="83"/>
@@ -13921,7 +13921,7 @@
         <v>-90337</v>
       </c>
       <c r="J81" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>7120</v>
       </c>
       <c r="K81" s="51">
@@ -13978,8 +13978,8 @@
         <v>137785</v>
       </c>
       <c r="F82" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G82" s="28">
         <f t="shared" si="83"/>
@@ -13994,7 +13994,7 @@
         <v>-96332</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>5858</v>
       </c>
       <c r="K82" s="48">
@@ -14051,8 +14051,8 @@
         <v>139669</v>
       </c>
       <c r="F83" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G83" s="27">
         <f t="shared" si="83"/>
@@ -14067,7 +14067,7 @@
         <v>-102589</v>
       </c>
       <c r="J83" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>4766</v>
       </c>
       <c r="K83" s="51">
@@ -14124,8 +14124,8 @@
         <v>141546</v>
       </c>
       <c r="F84" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G84" s="28">
         <f t="shared" si="83"/>
@@ -14140,7 +14140,7 @@
         <v>-109097</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>3834</v>
       </c>
       <c r="K84" s="48">
@@ -14197,8 +14197,8 @@
         <v>143420</v>
       </c>
       <c r="F85" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G85" s="27">
         <f t="shared" si="83"/>
@@ -14213,7 +14213,7 @@
         <v>-115845</v>
       </c>
       <c r="J85" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>3048</v>
       </c>
       <c r="K85" s="51">
@@ -14270,8 +14270,8 @@
         <v>145296</v>
       </c>
       <c r="F86" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G86" s="28">
         <f t="shared" si="83"/>
@@ -14286,7 +14286,7 @@
         <v>-122819</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2394</v>
       </c>
       <c r="K86" s="48">
@@ -14343,8 +14343,8 @@
         <v>147178</v>
       </c>
       <c r="F87" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G87" s="27">
         <f t="shared" si="83"/>
@@ -14359,7 +14359,7 @@
         <v>-130005</v>
       </c>
       <c r="J87" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1858</v>
       </c>
       <c r="K87" s="51">
@@ -14416,8 +14416,8 @@
         <v>149069</v>
       </c>
       <c r="F88" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G88" s="28">
         <f t="shared" si="83"/>
@@ -14432,7 +14432,7 @@
         <v>-137389</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1424</v>
       </c>
       <c r="K88" s="48">
@@ -14489,8 +14489,8 @@
         <v>150972</v>
       </c>
       <c r="F89" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G89" s="27">
         <f t="shared" si="83"/>
@@ -14505,7 +14505,7 @@
         <v>-144958</v>
       </c>
       <c r="J89" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1078</v>
       </c>
       <c r="K89" s="51">
@@ -14562,8 +14562,8 @@
         <v>152890</v>
       </c>
       <c r="F90" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G90" s="28">
         <f t="shared" si="83"/>
@@ -14578,7 +14578,7 @@
         <v>-152700</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>805</v>
       </c>
       <c r="K90" s="48">
@@ -14635,8 +14635,8 @@
         <v>154825</v>
       </c>
       <c r="F91" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G91" s="27">
         <f t="shared" si="83"/>
@@ -14651,7 +14651,7 @@
         <v>-160603</v>
       </c>
       <c r="J91" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>594</v>
       </c>
       <c r="K91" s="51">
@@ -14708,8 +14708,8 @@
         <v>156779</v>
       </c>
       <c r="F92" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G92" s="28">
         <f t="shared" si="83"/>
@@ -14724,7 +14724,7 @@
         <v>-168657</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>432</v>
       </c>
       <c r="K92" s="48">
@@ -14781,8 +14781,8 @@
         <v>158753</v>
       </c>
       <c r="F93" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G93" s="27">
         <f t="shared" si="83"/>
@@ -14797,7 +14797,7 @@
         <v>-176853</v>
       </c>
       <c r="J93" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>310</v>
       </c>
       <c r="K93" s="51">
@@ -14854,8 +14854,8 @@
         <v>160749</v>
       </c>
       <c r="F94" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G94" s="28">
         <f t="shared" si="83"/>
@@ -14870,7 +14870,7 @@
         <v>-185184</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>220</v>
       </c>
       <c r="K94" s="48">
@@ -14927,8 +14927,8 @@
         <v>162768</v>
       </c>
       <c r="F95" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G95" s="27">
         <f t="shared" si="83"/>
@@ -14943,7 +14943,7 @@
         <v>-193645</v>
       </c>
       <c r="J95" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>154</v>
       </c>
       <c r="K95" s="51">
@@ -15000,8 +15000,8 @@
         <v>164810</v>
       </c>
       <c r="F96" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G96" s="28">
         <f t="shared" si="83"/>
@@ -15016,7 +15016,7 @@
         <v>-202231</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>106</v>
       </c>
       <c r="K96" s="48">
@@ -15073,8 +15073,8 @@
         <v>166877</v>
       </c>
       <c r="F97" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G97" s="27">
         <f t="shared" si="83"/>
@@ -15089,7 +15089,7 @@
         <v>-210939</v>
       </c>
       <c r="J97" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>72</v>
       </c>
       <c r="K97" s="51">
@@ -15146,8 +15146,8 @@
         <v>168969</v>
       </c>
       <c r="F98" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G98" s="28">
         <f t="shared" si="83"/>
@@ -15219,8 +15219,8 @@
         <v>171087</v>
       </c>
       <c r="F99" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G99" s="27">
         <f t="shared" si="83"/>
@@ -15292,8 +15292,8 @@
         <v>173231</v>
       </c>
       <c r="F100" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G100" s="28">
         <f t="shared" si="83"/>
@@ -15365,8 +15365,8 @@
         <v>175401</v>
       </c>
       <c r="F101" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G101" s="27">
         <f t="shared" si="83"/>
@@ -15438,8 +15438,8 @@
         <v>177598</v>
       </c>
       <c r="F102" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G102" s="28">
         <f t="shared" si="83"/>
@@ -15511,8 +15511,8 @@
         <v>179823</v>
       </c>
       <c r="F103" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G103" s="27">
         <f t="shared" si="83"/>
@@ -15584,8 +15584,8 @@
         <v>182076</v>
       </c>
       <c r="F104" s="63">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G104" s="28">
         <f t="shared" si="83"/>
@@ -15657,8 +15657,8 @@
         <v>184357</v>
       </c>
       <c r="F105" s="64">
-        <f t="shared" si="76"/>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G105" s="27">
         <f t="shared" si="83"/>
@@ -15730,8 +15730,8 @@
         <v>186666</v>
       </c>
       <c r="F106" s="63">
-        <f t="shared" ref="F106:F169" si="99">D106*F$40/D$40</f>
-        <v>10357.663709433607</v>
+        <f t="shared" si="79"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G106" s="28">
         <f t="shared" si="83"/>
@@ -15803,8 +15803,8 @@
         <v>189004</v>
       </c>
       <c r="F107" s="64">
-        <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <f t="shared" ref="F107:F170" si="99">D107*F$41/D$41</f>
+        <v>10404.532701496044</v>
       </c>
       <c r="G107" s="27">
         <f t="shared" si="83"/>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="F108" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G108" s="28">
         <f t="shared" si="83"/>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="F109" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G109" s="27">
         <f t="shared" si="83"/>
@@ -16023,7 +16023,7 @@
       </c>
       <c r="F110" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G110" s="28">
         <f t="shared" si="83"/>
@@ -16096,7 +16096,7 @@
       </c>
       <c r="F111" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G111" s="27">
         <f t="shared" si="83"/>
@@ -16169,7 +16169,7 @@
       </c>
       <c r="F112" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G112" s="28">
         <f t="shared" si="83"/>
@@ -16242,7 +16242,7 @@
       </c>
       <c r="F113" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G113" s="27">
         <f t="shared" si="83"/>
@@ -16315,7 +16315,7 @@
       </c>
       <c r="F114" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G114" s="28">
         <f t="shared" si="83"/>
@@ -16388,7 +16388,7 @@
       </c>
       <c r="F115" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G115" s="27">
         <f t="shared" si="83"/>
@@ -16461,7 +16461,7 @@
       </c>
       <c r="F116" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G116" s="28">
         <f t="shared" si="83"/>
@@ -16534,7 +16534,7 @@
       </c>
       <c r="F117" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G117" s="27">
         <f t="shared" si="83"/>
@@ -16607,7 +16607,7 @@
       </c>
       <c r="F118" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G118" s="28">
         <f t="shared" si="83"/>
@@ -16680,7 +16680,7 @@
       </c>
       <c r="F119" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G119" s="27">
         <f t="shared" si="83"/>
@@ -16753,7 +16753,7 @@
       </c>
       <c r="F120" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G120" s="28">
         <f t="shared" si="83"/>
@@ -16826,7 +16826,7 @@
       </c>
       <c r="F121" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G121" s="27">
         <f t="shared" si="83"/>
@@ -16899,7 +16899,7 @@
       </c>
       <c r="F122" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G122" s="28">
         <f t="shared" si="83"/>
@@ -16972,7 +16972,7 @@
       </c>
       <c r="F123" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G123" s="27">
         <f t="shared" si="83"/>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="F124" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G124" s="28">
         <f t="shared" si="83"/>
@@ -17118,7 +17118,7 @@
       </c>
       <c r="F125" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G125" s="27">
         <f t="shared" si="83"/>
@@ -17191,7 +17191,7 @@
       </c>
       <c r="F126" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G126" s="28">
         <f t="shared" si="83"/>
@@ -17264,7 +17264,7 @@
       </c>
       <c r="F127" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G127" s="27">
         <f t="shared" si="83"/>
@@ -17337,7 +17337,7 @@
       </c>
       <c r="F128" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G128" s="28">
         <f t="shared" si="83"/>
@@ -17410,7 +17410,7 @@
       </c>
       <c r="F129" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G129" s="27">
         <f t="shared" si="83"/>
@@ -17483,7 +17483,7 @@
       </c>
       <c r="F130" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G130" s="28">
         <f t="shared" si="83"/>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="F131" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G131" s="27">
         <f t="shared" si="83"/>
@@ -17629,7 +17629,7 @@
       </c>
       <c r="F132" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G132" s="28">
         <f t="shared" ref="G132:G195" si="103">D132/U$3</f>
@@ -17702,7 +17702,7 @@
       </c>
       <c r="F133" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G133" s="27">
         <f t="shared" si="103"/>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="F134" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G134" s="28">
         <f t="shared" si="103"/>
@@ -17848,7 +17848,7 @@
       </c>
       <c r="F135" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G135" s="27">
         <f t="shared" si="103"/>
@@ -17921,7 +17921,7 @@
       </c>
       <c r="F136" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G136" s="28">
         <f t="shared" si="103"/>
@@ -17994,7 +17994,7 @@
       </c>
       <c r="F137" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G137" s="27">
         <f t="shared" si="103"/>
@@ -18067,7 +18067,7 @@
       </c>
       <c r="F138" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G138" s="28">
         <f t="shared" si="103"/>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="F139" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G139" s="27">
         <f t="shared" si="103"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="F140" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G140" s="28">
         <f t="shared" si="103"/>
@@ -18286,7 +18286,7 @@
       </c>
       <c r="F141" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G141" s="27">
         <f t="shared" si="103"/>
@@ -18359,7 +18359,7 @@
       </c>
       <c r="F142" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G142" s="28">
         <f t="shared" si="103"/>
@@ -18432,7 +18432,7 @@
       </c>
       <c r="F143" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G143" s="27">
         <f t="shared" si="103"/>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="F144" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G144" s="28">
         <f t="shared" si="103"/>
@@ -18578,7 +18578,7 @@
       </c>
       <c r="F145" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G145" s="27">
         <f t="shared" si="103"/>
@@ -18651,7 +18651,7 @@
       </c>
       <c r="F146" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G146" s="28">
         <f t="shared" si="103"/>
@@ -18724,7 +18724,7 @@
       </c>
       <c r="F147" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G147" s="27">
         <f t="shared" si="103"/>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="F148" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G148" s="28">
         <f t="shared" si="103"/>
@@ -18870,7 +18870,7 @@
       </c>
       <c r="F149" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G149" s="27">
         <f t="shared" si="103"/>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="F150" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G150" s="28">
         <f t="shared" si="103"/>
@@ -19016,7 +19016,7 @@
       </c>
       <c r="F151" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G151" s="27">
         <f t="shared" si="103"/>
@@ -19089,7 +19089,7 @@
       </c>
       <c r="F152" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G152" s="28">
         <f t="shared" si="103"/>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="F153" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G153" s="27">
         <f t="shared" si="103"/>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="F154" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G154" s="28">
         <f t="shared" si="103"/>
@@ -19308,7 +19308,7 @@
       </c>
       <c r="F155" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G155" s="27">
         <f t="shared" si="103"/>
@@ -19381,7 +19381,7 @@
       </c>
       <c r="F156" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G156" s="28">
         <f t="shared" si="103"/>
@@ -19454,7 +19454,7 @@
       </c>
       <c r="F157" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G157" s="27">
         <f t="shared" si="103"/>
@@ -19527,7 +19527,7 @@
       </c>
       <c r="F158" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G158" s="28">
         <f t="shared" si="103"/>
@@ -19600,7 +19600,7 @@
       </c>
       <c r="F159" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G159" s="27">
         <f t="shared" si="103"/>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="F160" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G160" s="28">
         <f t="shared" si="103"/>
@@ -19746,7 +19746,7 @@
       </c>
       <c r="F161" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G161" s="27">
         <f t="shared" si="103"/>
@@ -19819,7 +19819,7 @@
       </c>
       <c r="F162" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G162" s="28">
         <f t="shared" si="103"/>
@@ -19892,7 +19892,7 @@
       </c>
       <c r="F163" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G163" s="27">
         <f t="shared" si="103"/>
@@ -19965,7 +19965,7 @@
       </c>
       <c r="F164" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G164" s="28">
         <f t="shared" si="103"/>
@@ -20038,7 +20038,7 @@
       </c>
       <c r="F165" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G165" s="27">
         <f t="shared" si="103"/>
@@ -20111,7 +20111,7 @@
       </c>
       <c r="F166" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G166" s="28">
         <f t="shared" si="103"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="F167" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G167" s="27">
         <f t="shared" si="103"/>
@@ -20257,7 +20257,7 @@
       </c>
       <c r="F168" s="63">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G168" s="28">
         <f t="shared" si="103"/>
@@ -20330,7 +20330,7 @@
       </c>
       <c r="F169" s="64">
         <f t="shared" si="99"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G169" s="27">
         <f t="shared" si="103"/>
@@ -20402,8 +20402,8 @@
         <v>414104</v>
       </c>
       <c r="F170" s="63">
-        <f t="shared" ref="F170:F204" si="119">D170*F$40/D$40</f>
-        <v>10357.663709433607</v>
+        <f t="shared" si="99"/>
+        <v>10404.532701496044</v>
       </c>
       <c r="G170" s="28">
         <f t="shared" si="103"/>
@@ -20475,8 +20475,8 @@
         <v>419292</v>
       </c>
       <c r="F171" s="64">
-        <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <f t="shared" ref="F171:F204" si="119">D171*F$41/D$41</f>
+        <v>10404.532701496044</v>
       </c>
       <c r="G171" s="27">
         <f t="shared" si="103"/>
@@ -20549,7 +20549,7 @@
       </c>
       <c r="F172" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G172" s="28">
         <f t="shared" si="103"/>
@@ -20622,7 +20622,7 @@
       </c>
       <c r="F173" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G173" s="27">
         <f t="shared" si="103"/>
@@ -20695,7 +20695,7 @@
       </c>
       <c r="F174" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G174" s="28">
         <f t="shared" si="103"/>
@@ -20768,7 +20768,7 @@
       </c>
       <c r="F175" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G175" s="27">
         <f t="shared" si="103"/>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="F176" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G176" s="28">
         <f t="shared" si="103"/>
@@ -20914,7 +20914,7 @@
       </c>
       <c r="F177" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G177" s="27">
         <f t="shared" si="103"/>
@@ -20987,7 +20987,7 @@
       </c>
       <c r="F178" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G178" s="28">
         <f t="shared" si="103"/>
@@ -21060,7 +21060,7 @@
       </c>
       <c r="F179" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G179" s="27">
         <f t="shared" si="103"/>
@@ -21133,7 +21133,7 @@
       </c>
       <c r="F180" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G180" s="28">
         <f t="shared" si="103"/>
@@ -21206,7 +21206,7 @@
       </c>
       <c r="F181" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G181" s="27">
         <f t="shared" si="103"/>
@@ -21279,7 +21279,7 @@
       </c>
       <c r="F182" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G182" s="28">
         <f t="shared" si="103"/>
@@ -21352,7 +21352,7 @@
       </c>
       <c r="F183" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G183" s="27">
         <f t="shared" si="103"/>
@@ -21425,7 +21425,7 @@
       </c>
       <c r="F184" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G184" s="28">
         <f t="shared" si="103"/>
@@ -21498,7 +21498,7 @@
       </c>
       <c r="F185" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G185" s="27">
         <f t="shared" si="103"/>
@@ -21571,7 +21571,7 @@
       </c>
       <c r="F186" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G186" s="28">
         <f t="shared" si="103"/>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="F187" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G187" s="27">
         <f t="shared" si="103"/>
@@ -21717,7 +21717,7 @@
       </c>
       <c r="F188" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G188" s="28">
         <f t="shared" si="103"/>
@@ -21790,7 +21790,7 @@
       </c>
       <c r="F189" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G189" s="27">
         <f t="shared" si="103"/>
@@ -21863,7 +21863,7 @@
       </c>
       <c r="F190" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G190" s="28">
         <f t="shared" si="103"/>
@@ -21936,7 +21936,7 @@
       </c>
       <c r="F191" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G191" s="27">
         <f t="shared" si="103"/>
@@ -22009,7 +22009,7 @@
       </c>
       <c r="F192" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G192" s="28">
         <f t="shared" si="103"/>
@@ -22082,7 +22082,7 @@
       </c>
       <c r="F193" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G193" s="27">
         <f t="shared" si="103"/>
@@ -22155,7 +22155,7 @@
       </c>
       <c r="F194" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G194" s="28">
         <f t="shared" si="103"/>
@@ -22228,7 +22228,7 @@
       </c>
       <c r="F195" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G195" s="27">
         <f t="shared" si="103"/>
@@ -22301,7 +22301,7 @@
       </c>
       <c r="F196" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G196" s="28">
         <f t="shared" ref="G196:G204" si="123">D196/U$3</f>
@@ -22374,7 +22374,7 @@
       </c>
       <c r="F197" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G197" s="27">
         <f t="shared" si="123"/>
@@ -22447,7 +22447,7 @@
       </c>
       <c r="F198" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G198" s="28">
         <f t="shared" si="123"/>
@@ -22520,7 +22520,7 @@
       </c>
       <c r="F199" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G199" s="27">
         <f t="shared" si="123"/>
@@ -22593,7 +22593,7 @@
       </c>
       <c r="F200" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G200" s="28">
         <f t="shared" si="123"/>
@@ -22666,7 +22666,7 @@
       </c>
       <c r="F201" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G201" s="27">
         <f t="shared" si="123"/>
@@ -22739,7 +22739,7 @@
       </c>
       <c r="F202" s="63">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G202" s="28">
         <f t="shared" si="123"/>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="F203" s="64">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G203" s="27">
         <f t="shared" si="123"/>
@@ -22885,7 +22885,7 @@
       </c>
       <c r="F204" s="75">
         <f t="shared" si="119"/>
-        <v>10357.663709433607</v>
+        <v>10404.532701496044</v>
       </c>
       <c r="G204" s="76">
         <f t="shared" si="123"/>
